--- a/medicine/Œil et vue/Kératectomie/Kératectomie.xlsx
+++ b/medicine/Œil et vue/Kératectomie/Kératectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratectomie</t>
+          <t>Kératectomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La kératectomie du grec kêras, kératos (corne) et ektomê (excision) est une technique chirurgicale qui consiste à pratiquer l'ablation de la cornée[1], ou d'une portion seulement de la cornée[2],[3]. L'indication peut être traumatique, cicatricielle, infectieuse, dystrophique, dégénérative, tumorale ou plus simplement réfractive[4].
-Chez l'Humain, le premier temps chirurgical de la réalisation d'une greffe de cornée peut être une kératectomie transfixiante (c'est-à-dire dans toute l'épaisseur de la cornée, mais pas dans toute la surface), ou une kératectomie lamellaire (c'est-à-dire d'une seule partie de l'épaisseur de la cornée, antérieure ou postérieure, si toute l'épaisseur de la cornée n'est pas malade)[5].
-Dans le cas de la chirurgie réfractive (correction de myopie, hypermétropie, astigmatisme), la principale technique de kératectomie est la photokératectomie réfractive . En ophtalmologie vétérinaire, on a recours à la kératectomie lamellaire[6]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kératectomie du grec kêras, kératos (corne) et ektomê (excision) est une technique chirurgicale qui consiste à pratiquer l'ablation de la cornée, ou d'une portion seulement de la cornée,. L'indication peut être traumatique, cicatricielle, infectieuse, dystrophique, dégénérative, tumorale ou plus simplement réfractive.
+Chez l'Humain, le premier temps chirurgical de la réalisation d'une greffe de cornée peut être une kératectomie transfixiante (c'est-à-dire dans toute l'épaisseur de la cornée, mais pas dans toute la surface), ou une kératectomie lamellaire (c'est-à-dire d'une seule partie de l'épaisseur de la cornée, antérieure ou postérieure, si toute l'épaisseur de la cornée n'est pas malade).
+Dans le cas de la chirurgie réfractive (correction de myopie, hypermétropie, astigmatisme), la principale technique de kératectomie est la photokératectomie réfractive . En ophtalmologie vétérinaire, on a recours à la kératectomie lamellaire. 
 La kératectomie ne doit pas être confondue avec la kératomileusis qui consiste à amincir la cornée centrale ou périphérique, aussi utilisée pour corriger des troubles de la réfraction.
 </t>
         </is>
